--- a/Testdateien/Laufzettel.xlsx
+++ b/Testdateien/Laufzettel.xlsx
@@ -1,42 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nick\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Projekt\Testdateien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6007BE41-F362-4F34-989E-8574A12D89A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B8D169F-4CAE-4EEE-A87E-9F9E89A8FE76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raum-und Zeitplanung" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Schüler</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Vortrag</t>
   </si>
@@ -59,14 +43,14 @@
     <t xml:space="preserve"> Raum</t>
   </si>
   <si>
-    <t>Max</t>
+    <t>Mustermann, Kevin</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -431,37 +415,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>2</v>
       </c>
       <c r="B2">
         <v>16</v>
@@ -470,9 +454,9 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -481,9 +465,9 @@
         <v>209</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>19</v>
@@ -492,9 +476,9 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>18</v>
@@ -503,20 +487,15 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6">
         <v>208</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B19" t="s">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
